--- a/data/trans_camb/P43E-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43E-Provincia-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.314229002626284</v>
+        <v>-8.165180935114629</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.8988943148515</v>
+        <v>-16.55016292626117</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.696952208141258</v>
+        <v>10.29419109971828</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.293909556535503</v>
+        <v>-1.683111654558458</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.32278948751766</v>
+        <v>-0.2920265405312982</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.590644177706848</v>
+        <v>-0.5792357510949416</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4417509229009905</v>
+        <v>0.5356937743029013</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.07465301057335567</v>
+        <v>-0.09713705159872896</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.77116845354141</v>
+        <v>-13.21937271782563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.378083199869267</v>
+        <v>-2.380554521307939</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.288192033439725</v>
+        <v>-1.595195654380221</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.56670880218455</v>
+        <v>11.18588873795708</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5082221186413817</v>
+        <v>-0.5163985274158004</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09673231163265647</v>
+        <v>-0.09737518272736533</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.06216644382063329</v>
+        <v>-0.08045387190280114</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5757180321442004</v>
+        <v>0.6002619134462613</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-28.67231151381156</v>
+        <v>-28.58120693626091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.73863904796627</v>
+        <v>-16.41131034572379</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-13.67377355492346</v>
+        <v>-13.0810154479945</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1176656206910395</v>
+        <v>0.8646942716645339</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8956277830169218</v>
+        <v>-0.9109781514874459</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5516883197100668</v>
+        <v>-0.5312595989925635</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.6334597403304687</v>
+        <v>-0.6336476340934486</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.004844459512503841</v>
+        <v>0.05426272792671681</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-14.3148195072713</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-5.651051265562549</v>
+        <v>-5.651051265562545</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-21.13003003024699</v>
+        <v>-20.97863090206273</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.23589453337015</v>
+        <v>-12.70106461155274</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.709159810887753</v>
+        <v>-6.306772279977274</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.452875955532761</v>
+        <v>1.357867391406049</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.5472714214940071</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.2160459555545908</v>
+        <v>-0.2160459555545907</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7040921734501671</v>
+        <v>-0.6915508652501263</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4415702968170651</v>
+        <v>-0.4356109198750659</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3237017146448579</v>
+        <v>-0.2880345408717218</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07083372620844791</v>
+        <v>0.05712183893372912</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-19.04794089816978</v>
+        <v>-20.31586849738424</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.128755177864163</v>
+        <v>-7.084790848380526</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5071568950927673</v>
+        <v>-0.7633778521906298</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.61436741545432</v>
+        <v>13.78424343140527</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.749102473236976</v>
+        <v>-0.7426932940044256</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2346012289129111</v>
+        <v>-0.2541515052874149</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04383359003988205</v>
+        <v>-0.01738896325169567</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9338442327077682</v>
+        <v>0.8081410926008895</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.435546124477305</v>
+        <v>-7.218207094657784</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-10.0793678558977</v>
+        <v>-10.7814189179706</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.26177017798462</v>
+        <v>19.16328623790638</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.025865447545607</v>
+        <v>7.203562960665096</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.280893762983312</v>
+        <v>-0.3258070544809686</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4411803803327649</v>
+        <v>-0.44646098630165</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.380727876151495</v>
+        <v>1.296491665118317</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5893311191493684</v>
+        <v>0.5033519002503222</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>-2.266095506952961</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>17.38228658781545</v>
+        <v>17.38228658781546</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.688893260803583</v>
+        <v>-7.894625598294959</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>11.20250807391037</v>
+        <v>10.81101505617371</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.880335621102752</v>
+        <v>3.502609741023643</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.65811032428997</v>
+        <v>23.30974459799713</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>-0.09322667473923561</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.7151034777547379</v>
+        <v>0.7151034777547381</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3093758239900066</v>
+        <v>-0.298819219175586</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4014972812792365</v>
+        <v>0.3920703374496714</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1905360986675662</v>
+        <v>0.1647071896170272</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.148740303465733</v>
+        <v>1.11596736474832</v>
       </c>
     </row>
     <row r="46">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.962091884841678</v>
+        <v>-9.522642742750055</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-12.36169652371895</v>
+        <v>-12.5853682837455</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.149090763312794</v>
+        <v>0.8081670246122586</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.513154271755548</v>
+        <v>-2.055741975884505</v>
       </c>
     </row>
     <row r="49">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3643383741536884</v>
+        <v>-0.3908753297144562</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5125650014945962</v>
+        <v>-0.5207611060230415</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.07515909945895738</v>
+        <v>0.03803423646807021</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.07721864507916767</v>
+        <v>-0.1087853194426916</v>
       </c>
     </row>
     <row r="52">
@@ -1276,7 +1276,7 @@
         <v>-6.613810958360738</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>1.548087919728611</v>
+        <v>1.548087919728613</v>
       </c>
     </row>
     <row r="53">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-8.957050720944885</v>
+        <v>-9.042757411335495</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.8500192079459835</v>
+        <v>-1.133625677323119</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-4.101570053189399</v>
+        <v>-4.034687294125354</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.327613756250321</v>
+        <v>4.182522167159597</v>
       </c>
     </row>
     <row r="55">
@@ -1318,7 +1318,7 @@
         <v>-0.2874795499560193</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.06729004219471026</v>
+        <v>0.06729004219471037</v>
       </c>
     </row>
     <row r="56">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.3702328291320151</v>
+        <v>-0.3707519697901004</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.03575517900321623</v>
+        <v>-0.04655675391752295</v>
       </c>
     </row>
     <row r="57">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.1861498520394684</v>
+        <v>-0.1878282349238864</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1956977736237299</v>
+        <v>0.1960234764581363</v>
       </c>
     </row>
     <row r="58">
